--- a/biology/Médecine/Artère_satellite_du_nerf_médian/Artère_satellite_du_nerf_médian.xlsx
+++ b/biology/Médecine/Artère_satellite_du_nerf_médian/Artère_satellite_du_nerf_médian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_satellite_du_nerf_m%C3%A9dian</t>
+          <t>Artère_satellite_du_nerf_médian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère satellite du nerf médian (ou artère médiane de l'avant-bras ou artère du nerf médian) est une artère de l'avant-bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_satellite_du_nerf_m%C3%A9dian</t>
+          <t>Artère_satellite_du_nerf_médian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère satellite du nerf médian est un rameau antérieur de l'artère interosseuse antérieure.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_satellite_du_nerf_m%C3%A9dian</t>
+          <t>Artère_satellite_du_nerf_médian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère satellite du nerf médian chemine dans l'épaisseur du nerf médian et le vascularise.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_satellite_du_nerf_m%C3%A9dian</t>
+          <t>Artère_satellite_du_nerf_médian</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant le développement embryonnaire l'artère satellite du nerf médian joue le rôle d'artère principale de l'avant-bras et de la main. Elle régresse généralement à la huitième semaine du développement embryonnaire après formation de l’artère radiale et de l’artère ulnaire[1] mais peut persister plus durablement.
-Une artère médiane de l'avant-bras persistante se retrouve entre 4,4 % et 8,3 % de la population[2], souvent en relation avec le nerf médian[3],[4] qui, lui-même peut être bifide et, dans certains cas, de manière bilatérale
-[5].
-Une artère médiane de l'avant-bras persistante est parfois reliée à un syndrome du canal carpien[5],[6].
-La prévalence était de 10 % pour les gens nés au milieu des années 1880, alors qu’elle est de 30 % pour ceux qui sont nés à la fin du XXe siècle[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant le développement embryonnaire l'artère satellite du nerf médian joue le rôle d'artère principale de l'avant-bras et de la main. Elle régresse généralement à la huitième semaine du développement embryonnaire après formation de l’artère radiale et de l’artère ulnaire mais peut persister plus durablement.
+Une artère médiane de l'avant-bras persistante se retrouve entre 4,4 % et 8,3 % de la population, souvent en relation avec le nerf médian, qui, lui-même peut être bifide et, dans certains cas, de manière bilatérale
+.
+Une artère médiane de l'avant-bras persistante est parfois reliée à un syndrome du canal carpien,.
+La prévalence était de 10 % pour les gens nés au milieu des années 1880, alors qu’elle est de 30 % pour ceux qui sont nés à la fin du XXe siècle.
 </t>
         </is>
       </c>
